--- a/추가피처데이터/투자자별매매동향(수급)/383220.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/383220.xlsx
@@ -1607,43 +1607,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1875,94 +1875,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>723</v>
+        <v>99863</v>
       </c>
       <c r="C6" s="7">
-        <v>701</v>
+        <v>96241</v>
       </c>
       <c r="D6" s="9">
-        <v>22</v>
+        <v>3622</v>
       </c>
       <c r="E6" s="11">
-        <v>818</v>
+        <v>111542</v>
       </c>
       <c r="F6" s="13">
-        <v>711</v>
+        <v>98983</v>
       </c>
       <c r="G6" s="15">
-        <v>107</v>
+        <v>12560</v>
       </c>
       <c r="H6" s="17">
-        <v>703</v>
+        <v>98163</v>
       </c>
       <c r="I6" s="19">
-        <v>823</v>
+        <v>113060</v>
       </c>
       <c r="J6" s="21">
-        <v>-120</v>
+        <v>-14896</v>
       </c>
       <c r="K6" s="23">
-        <v>134</v>
+        <v>18823</v>
       </c>
       <c r="L6" s="25">
-        <v>155</v>
+        <v>21407</v>
       </c>
       <c r="M6" s="27">
-        <v>-20</v>
+        <v>-2584</v>
       </c>
       <c r="N6" s="29">
-        <v>80</v>
+        <v>11324</v>
       </c>
       <c r="O6" s="31">
-        <v>74</v>
+        <v>10356</v>
       </c>
       <c r="P6" s="33">
-        <v>6</v>
+        <v>967</v>
       </c>
       <c r="Q6" s="35">
-        <v>175</v>
+        <v>24505</v>
       </c>
       <c r="R6" s="37">
-        <v>227</v>
+        <v>30852</v>
       </c>
       <c r="S6" s="39">
-        <v>-52</v>
+        <v>-6347</v>
       </c>
       <c r="T6" s="41">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="U6" s="43">
-        <v>7</v>
+        <v>1070</v>
       </c>
       <c r="V6" s="45">
-        <v>-5</v>
+        <v>-780</v>
       </c>
       <c r="W6" s="47">
-        <v>2</v>
+        <v>318</v>
       </c>
       <c r="X6" s="49">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="51">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="Z6" s="53">
-        <v>108</v>
+        <v>15228</v>
       </c>
       <c r="AA6" s="55">
-        <v>187</v>
+        <v>25654</v>
       </c>
       <c r="AB6" s="57">
-        <v>-79</v>
+        <v>-10427</v>
       </c>
       <c r="AC6" s="59">
-        <v>202</v>
+        <v>27676</v>
       </c>
       <c r="AD6" s="61">
-        <v>173</v>
+        <v>23678</v>
       </c>
       <c r="AE6" s="63">
-        <v>29</v>
+        <v>3998</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>28</v>
+        <v>3829</v>
       </c>
       <c r="AJ6" s="73">
-        <v>37</v>
+        <v>5114</v>
       </c>
       <c r="AK6" s="75">
-        <v>-9</v>
+        <v>-1285</v>
       </c>
       <c r="AL6" s="77">
-        <v>2272</v>
+        <v>313398</v>
       </c>
     </row>
     <row r="7">
@@ -1991,94 +1991,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>940</v>
+        <v>130911</v>
       </c>
       <c r="C7" s="7">
-        <v>912</v>
+        <v>128052</v>
       </c>
       <c r="D7" s="9">
-        <v>28</v>
+        <v>2859</v>
       </c>
       <c r="E7" s="11">
-        <v>880</v>
+        <v>123251</v>
       </c>
       <c r="F7" s="13">
-        <v>1053</v>
+        <v>148170</v>
       </c>
       <c r="G7" s="15">
-        <v>-173</v>
+        <v>-24919</v>
       </c>
       <c r="H7" s="17">
-        <v>835</v>
+        <v>117650</v>
       </c>
       <c r="I7" s="19">
-        <v>683</v>
+        <v>94570</v>
       </c>
       <c r="J7" s="21">
-        <v>152</v>
+        <v>23080</v>
       </c>
       <c r="K7" s="23">
-        <v>194</v>
+        <v>27351</v>
       </c>
       <c r="L7" s="25">
-        <v>178</v>
+        <v>24900</v>
       </c>
       <c r="M7" s="27">
-        <v>15</v>
+        <v>2451</v>
       </c>
       <c r="N7" s="29">
-        <v>55</v>
+        <v>7816</v>
       </c>
       <c r="O7" s="31">
-        <v>53</v>
+        <v>7360</v>
       </c>
       <c r="P7" s="33">
-        <v>2</v>
+        <v>456</v>
       </c>
       <c r="Q7" s="35">
-        <v>155</v>
+        <v>21776</v>
       </c>
       <c r="R7" s="37">
-        <v>178</v>
+        <v>24559</v>
       </c>
       <c r="S7" s="39">
-        <v>-23</v>
+        <v>-2783</v>
       </c>
       <c r="T7" s="41">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="U7" s="43">
-        <v>9</v>
+        <v>1263</v>
       </c>
       <c r="V7" s="45">
-        <v>-5</v>
+        <v>-723</v>
       </c>
       <c r="W7" s="47">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="X7" s="49">
-        <v>13</v>
+        <v>1774</v>
       </c>
       <c r="Y7" s="51">
-        <v>-9</v>
+        <v>-1263</v>
       </c>
       <c r="Z7" s="53">
-        <v>221</v>
+        <v>31208</v>
       </c>
       <c r="AA7" s="55">
-        <v>124</v>
+        <v>16997</v>
       </c>
       <c r="AB7" s="57">
-        <v>97</v>
+        <v>14211</v>
       </c>
       <c r="AC7" s="59">
-        <v>204</v>
+        <v>28446</v>
       </c>
       <c r="AD7" s="61">
-        <v>128</v>
+        <v>17716</v>
       </c>
       <c r="AE7" s="63">
-        <v>75</v>
+        <v>10730</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>29</v>
+        <v>4024</v>
       </c>
       <c r="AJ7" s="73">
-        <v>36</v>
+        <v>5045</v>
       </c>
       <c r="AK7" s="75">
-        <v>-7</v>
+        <v>-1020</v>
       </c>
       <c r="AL7" s="77">
-        <v>2684</v>
+        <v>375836</v>
       </c>
     </row>
     <row r="8">
@@ -2107,94 +2107,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>856</v>
+        <v>116385</v>
       </c>
       <c r="C8" s="7">
-        <v>967</v>
+        <v>132071</v>
       </c>
       <c r="D8" s="9">
-        <v>-111</v>
+        <v>-15686</v>
       </c>
       <c r="E8" s="11">
-        <v>858</v>
+        <v>116638</v>
       </c>
       <c r="F8" s="13">
-        <v>930</v>
+        <v>127154</v>
       </c>
       <c r="G8" s="15">
-        <v>-72</v>
+        <v>-10516</v>
       </c>
       <c r="H8" s="17">
-        <v>875</v>
+        <v>121106</v>
       </c>
       <c r="I8" s="19">
-        <v>699</v>
+        <v>95818</v>
       </c>
       <c r="J8" s="21">
-        <v>176</v>
+        <v>25288</v>
       </c>
       <c r="K8" s="23">
-        <v>206</v>
+        <v>28372</v>
       </c>
       <c r="L8" s="25">
-        <v>198</v>
+        <v>27399</v>
       </c>
       <c r="M8" s="27">
-        <v>8</v>
+        <v>973</v>
       </c>
       <c r="N8" s="29">
-        <v>63</v>
+        <v>8674</v>
       </c>
       <c r="O8" s="31">
-        <v>37</v>
+        <v>5041</v>
       </c>
       <c r="P8" s="33">
-        <v>26</v>
+        <v>3632</v>
       </c>
       <c r="Q8" s="35">
-        <v>204</v>
+        <v>28430</v>
       </c>
       <c r="R8" s="37">
-        <v>107</v>
+        <v>14608</v>
       </c>
       <c r="S8" s="39">
-        <v>97</v>
+        <v>13822</v>
       </c>
       <c r="T8" s="41">
-        <v>8</v>
+        <v>1095</v>
       </c>
       <c r="U8" s="43">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="V8" s="45">
-        <v>6</v>
+        <v>817</v>
       </c>
       <c r="W8" s="47">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="X8" s="49">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="Y8" s="51">
-        <v>-3</v>
+        <v>-399</v>
       </c>
       <c r="Z8" s="53">
-        <v>153</v>
+        <v>21049</v>
       </c>
       <c r="AA8" s="55">
-        <v>183</v>
+        <v>25424</v>
       </c>
       <c r="AB8" s="57">
-        <v>-30</v>
+        <v>-4375</v>
       </c>
       <c r="AC8" s="59">
-        <v>238</v>
+        <v>33187</v>
       </c>
       <c r="AD8" s="61">
-        <v>166</v>
+        <v>22371</v>
       </c>
       <c r="AE8" s="63">
-        <v>72</v>
+        <v>10816</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2206,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>28</v>
+        <v>3810</v>
       </c>
       <c r="AJ8" s="73">
-        <v>21</v>
+        <v>2896</v>
       </c>
       <c r="AK8" s="75">
-        <v>7</v>
+        <v>915</v>
       </c>
       <c r="AL8" s="77">
-        <v>2617</v>
+        <v>357939</v>
       </c>
     </row>
     <row r="9">
@@ -2223,94 +2223,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>988</v>
+        <v>145892</v>
       </c>
       <c r="C9" s="7">
-        <v>880</v>
+        <v>129520</v>
       </c>
       <c r="D9" s="9">
-        <v>108</v>
+        <v>16372</v>
       </c>
       <c r="E9" s="11">
-        <v>926</v>
+        <v>137146</v>
       </c>
       <c r="F9" s="13">
-        <v>1019</v>
+        <v>151302</v>
       </c>
       <c r="G9" s="15">
-        <v>-93</v>
+        <v>-14156</v>
       </c>
       <c r="H9" s="17">
-        <v>731</v>
+        <v>108353</v>
       </c>
       <c r="I9" s="19">
-        <v>764</v>
+        <v>113185</v>
       </c>
       <c r="J9" s="21">
-        <v>-33</v>
+        <v>-4832</v>
       </c>
       <c r="K9" s="23">
-        <v>175</v>
+        <v>25876</v>
       </c>
       <c r="L9" s="25">
-        <v>212</v>
+        <v>31299</v>
       </c>
       <c r="M9" s="27">
-        <v>-37</v>
+        <v>-5423</v>
       </c>
       <c r="N9" s="29">
-        <v>39</v>
+        <v>5847</v>
       </c>
       <c r="O9" s="31">
-        <v>45</v>
+        <v>6673</v>
       </c>
       <c r="P9" s="33">
-        <v>-6</v>
+        <v>-826</v>
       </c>
       <c r="Q9" s="35">
-        <v>160</v>
+        <v>23618</v>
       </c>
       <c r="R9" s="37">
-        <v>166</v>
+        <v>24572</v>
       </c>
       <c r="S9" s="39">
-        <v>-6</v>
+        <v>-953</v>
       </c>
       <c r="T9" s="41">
-        <v>3</v>
+        <v>453</v>
       </c>
       <c r="U9" s="43">
-        <v>3</v>
+        <v>385</v>
       </c>
       <c r="V9" s="45">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="W9" s="47">
-        <v>15</v>
+        <v>2253</v>
       </c>
       <c r="X9" s="49">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="Y9" s="51">
-        <v>13</v>
+        <v>2006</v>
       </c>
       <c r="Z9" s="53">
-        <v>161</v>
+        <v>23859</v>
       </c>
       <c r="AA9" s="55">
-        <v>152</v>
+        <v>22582</v>
       </c>
       <c r="AB9" s="57">
-        <v>9</v>
+        <v>1278</v>
       </c>
       <c r="AC9" s="59">
-        <v>178</v>
+        <v>26446</v>
       </c>
       <c r="AD9" s="61">
-        <v>185</v>
+        <v>27427</v>
       </c>
       <c r="AE9" s="63">
-        <v>-7</v>
+        <v>-981</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2322,16 +2322,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>39</v>
+        <v>5749</v>
       </c>
       <c r="AJ9" s="73">
-        <v>21</v>
+        <v>3133</v>
       </c>
       <c r="AK9" s="75">
-        <v>18</v>
+        <v>2616</v>
       </c>
       <c r="AL9" s="77">
-        <v>2685</v>
+        <v>397140</v>
       </c>
     </row>
     <row r="10">
@@ -2339,94 +2339,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>1227</v>
+        <v>167374</v>
       </c>
       <c r="C10" s="7">
-        <v>1285</v>
+        <v>176710</v>
       </c>
       <c r="D10" s="9">
-        <v>-58</v>
+        <v>-9335</v>
       </c>
       <c r="E10" s="11">
-        <v>2286</v>
+        <v>308913</v>
       </c>
       <c r="F10" s="13">
-        <v>2247</v>
+        <v>306870</v>
       </c>
       <c r="G10" s="15">
-        <v>39</v>
+        <v>2043</v>
       </c>
       <c r="H10" s="17">
-        <v>1331</v>
+        <v>184233</v>
       </c>
       <c r="I10" s="19">
-        <v>1325</v>
+        <v>178470</v>
       </c>
       <c r="J10" s="21">
-        <v>7</v>
+        <v>5763</v>
       </c>
       <c r="K10" s="23">
-        <v>331</v>
+        <v>45042</v>
       </c>
       <c r="L10" s="25">
-        <v>326</v>
+        <v>43876</v>
       </c>
       <c r="M10" s="27">
-        <v>5</v>
+        <v>1167</v>
       </c>
       <c r="N10" s="29">
-        <v>87</v>
+        <v>12071</v>
       </c>
       <c r="O10" s="31">
-        <v>108</v>
+        <v>14480</v>
       </c>
       <c r="P10" s="33">
-        <v>-21</v>
+        <v>-2410</v>
       </c>
       <c r="Q10" s="35">
-        <v>252</v>
+        <v>35019</v>
       </c>
       <c r="R10" s="37">
-        <v>331</v>
+        <v>44365</v>
       </c>
       <c r="S10" s="39">
-        <v>-79</v>
+        <v>-9347</v>
       </c>
       <c r="T10" s="41">
-        <v>7</v>
+        <v>915</v>
       </c>
       <c r="U10" s="43">
-        <v>8</v>
+        <v>1197</v>
       </c>
       <c r="V10" s="45">
-        <v>-1</v>
+        <v>-282</v>
       </c>
       <c r="W10" s="47">
-        <v>13</v>
+        <v>1848</v>
       </c>
       <c r="X10" s="49">
-        <v>4</v>
+        <v>536</v>
       </c>
       <c r="Y10" s="51">
-        <v>9</v>
+        <v>1312</v>
       </c>
       <c r="Z10" s="53">
-        <v>295</v>
+        <v>40942</v>
       </c>
       <c r="AA10" s="55">
-        <v>244</v>
+        <v>33228</v>
       </c>
       <c r="AB10" s="57">
-        <v>51</v>
+        <v>7714</v>
       </c>
       <c r="AC10" s="59">
-        <v>347</v>
+        <v>48396</v>
       </c>
       <c r="AD10" s="61">
-        <v>304</v>
+        <v>40787</v>
       </c>
       <c r="AE10" s="63">
-        <v>42</v>
+        <v>7608</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2438,16 +2438,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>51</v>
+        <v>6837</v>
       </c>
       <c r="AJ10" s="73">
-        <v>38</v>
+        <v>5307</v>
       </c>
       <c r="AK10" s="75">
-        <v>13</v>
+        <v>1530</v>
       </c>
       <c r="AL10" s="77">
-        <v>4895</v>
+        <v>667357</v>
       </c>
     </row>
     <row r="11">
@@ -2455,94 +2455,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>1146</v>
+        <v>168161</v>
       </c>
       <c r="C11" s="7">
-        <v>1053</v>
+        <v>154128</v>
       </c>
       <c r="D11" s="9">
-        <v>93</v>
+        <v>14033</v>
       </c>
       <c r="E11" s="11">
-        <v>1776</v>
+        <v>260137</v>
       </c>
       <c r="F11" s="13">
-        <v>1993</v>
+        <v>291494</v>
       </c>
       <c r="G11" s="15">
-        <v>-217</v>
+        <v>-31356</v>
       </c>
       <c r="H11" s="17">
-        <v>1232</v>
+        <v>181095</v>
       </c>
       <c r="I11" s="19">
-        <v>1086</v>
+        <v>160466</v>
       </c>
       <c r="J11" s="21">
-        <v>146</v>
+        <v>20629</v>
       </c>
       <c r="K11" s="23">
-        <v>343</v>
+        <v>49552</v>
       </c>
       <c r="L11" s="25">
-        <v>168</v>
+        <v>24794</v>
       </c>
       <c r="M11" s="27">
-        <v>175</v>
+        <v>24758</v>
       </c>
       <c r="N11" s="29">
-        <v>105</v>
+        <v>15691</v>
       </c>
       <c r="O11" s="31">
-        <v>104</v>
+        <v>15197</v>
       </c>
       <c r="P11" s="33">
-        <v>1</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="35">
-        <v>223</v>
+        <v>33017</v>
       </c>
       <c r="R11" s="37">
-        <v>293</v>
+        <v>43180</v>
       </c>
       <c r="S11" s="39">
-        <v>-71</v>
+        <v>-10163</v>
       </c>
       <c r="T11" s="41">
-        <v>7</v>
+        <v>991</v>
       </c>
       <c r="U11" s="43">
-        <v>6</v>
+        <v>963</v>
       </c>
       <c r="V11" s="45">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W11" s="47">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="X11" s="49">
-        <v>6</v>
+        <v>943</v>
       </c>
       <c r="Y11" s="51">
-        <v>-4</v>
+        <v>-617</v>
       </c>
       <c r="Z11" s="53">
-        <v>238</v>
+        <v>36027</v>
       </c>
       <c r="AA11" s="55">
-        <v>200</v>
+        <v>29279</v>
       </c>
       <c r="AB11" s="57">
-        <v>38</v>
+        <v>6748</v>
       </c>
       <c r="AC11" s="59">
-        <v>316</v>
+        <v>45491</v>
       </c>
       <c r="AD11" s="61">
-        <v>309</v>
+        <v>46110</v>
       </c>
       <c r="AE11" s="63">
-        <v>7</v>
+        <v>-619</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>27</v>
+        <v>3990</v>
       </c>
       <c r="AJ11" s="73">
-        <v>50</v>
+        <v>7296</v>
       </c>
       <c r="AK11" s="75">
-        <v>-23</v>
+        <v>-3306</v>
       </c>
       <c r="AL11" s="77">
-        <v>4182</v>
+        <v>613384</v>
       </c>
     </row>
     <row r="12">
@@ -2571,94 +2571,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>1087</v>
+        <v>163711</v>
       </c>
       <c r="C12" s="7">
-        <v>953</v>
+        <v>143822</v>
       </c>
       <c r="D12" s="9">
-        <v>134</v>
+        <v>19888</v>
       </c>
       <c r="E12" s="11">
-        <v>1352</v>
+        <v>202953</v>
       </c>
       <c r="F12" s="13">
-        <v>1549</v>
+        <v>234100</v>
       </c>
       <c r="G12" s="15">
-        <v>-197</v>
+        <v>-31147</v>
       </c>
       <c r="H12" s="17">
-        <v>1060</v>
+        <v>160054</v>
       </c>
       <c r="I12" s="19">
-        <v>979</v>
+        <v>146122</v>
       </c>
       <c r="J12" s="21">
-        <v>81</v>
+        <v>13932</v>
       </c>
       <c r="K12" s="23">
-        <v>208</v>
+        <v>31483</v>
       </c>
       <c r="L12" s="25">
-        <v>178</v>
+        <v>26568</v>
       </c>
       <c r="M12" s="27">
-        <v>30</v>
+        <v>4915</v>
       </c>
       <c r="N12" s="29">
-        <v>131</v>
+        <v>19846</v>
       </c>
       <c r="O12" s="31">
-        <v>81</v>
+        <v>12001</v>
       </c>
       <c r="P12" s="33">
-        <v>50</v>
+        <v>7846</v>
       </c>
       <c r="Q12" s="35">
-        <v>239</v>
+        <v>36214</v>
       </c>
       <c r="R12" s="37">
-        <v>208</v>
+        <v>30859</v>
       </c>
       <c r="S12" s="39">
-        <v>30</v>
+        <v>5356</v>
       </c>
       <c r="T12" s="41">
-        <v>5</v>
+        <v>705</v>
       </c>
       <c r="U12" s="43">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="V12" s="45">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="W12" s="47">
-        <v>8</v>
+        <v>1140</v>
       </c>
       <c r="X12" s="49">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="51">
-        <v>7</v>
+        <v>1049</v>
       </c>
       <c r="Z12" s="53">
-        <v>214</v>
+        <v>32277</v>
       </c>
       <c r="AA12" s="55">
-        <v>241</v>
+        <v>36276</v>
       </c>
       <c r="AB12" s="57">
-        <v>-27</v>
+        <v>-3999</v>
       </c>
       <c r="AC12" s="59">
-        <v>256</v>
+        <v>38390</v>
       </c>
       <c r="AD12" s="61">
-        <v>267</v>
+        <v>39878</v>
       </c>
       <c r="AE12" s="63">
-        <v>-11</v>
+        <v>-1489</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>14</v>
+        <v>2088</v>
       </c>
       <c r="AJ12" s="73">
-        <v>32</v>
+        <v>4762</v>
       </c>
       <c r="AK12" s="75">
-        <v>-18</v>
+        <v>-2674</v>
       </c>
       <c r="AL12" s="77">
-        <v>3513</v>
+        <v>528807</v>
       </c>
     </row>
     <row r="13">
@@ -2687,94 +2687,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>724</v>
+        <v>101116</v>
       </c>
       <c r="C13" s="7">
-        <v>790</v>
+        <v>110209</v>
       </c>
       <c r="D13" s="9">
-        <v>-66</v>
+        <v>-9093</v>
       </c>
       <c r="E13" s="11">
-        <v>794</v>
+        <v>109943</v>
       </c>
       <c r="F13" s="13">
-        <v>830</v>
+        <v>115561</v>
       </c>
       <c r="G13" s="15">
-        <v>-36</v>
+        <v>-5618</v>
       </c>
       <c r="H13" s="17">
-        <v>659</v>
+        <v>92002</v>
       </c>
       <c r="I13" s="19">
-        <v>567</v>
+        <v>78680</v>
       </c>
       <c r="J13" s="21">
-        <v>92</v>
+        <v>13322</v>
       </c>
       <c r="K13" s="23">
-        <v>125</v>
+        <v>17409</v>
       </c>
       <c r="L13" s="25">
-        <v>110</v>
+        <v>15291</v>
       </c>
       <c r="M13" s="27">
-        <v>15</v>
+        <v>2117</v>
       </c>
       <c r="N13" s="29">
-        <v>55</v>
+        <v>7698</v>
       </c>
       <c r="O13" s="31">
-        <v>69</v>
+        <v>9523</v>
       </c>
       <c r="P13" s="33">
-        <v>-14</v>
+        <v>-1825</v>
       </c>
       <c r="Q13" s="35">
-        <v>103</v>
+        <v>14346</v>
       </c>
       <c r="R13" s="37">
-        <v>149</v>
+        <v>20775</v>
       </c>
       <c r="S13" s="39">
-        <v>-46</v>
+        <v>-6429</v>
       </c>
       <c r="T13" s="41">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="U13" s="43">
-        <v>4</v>
+        <v>510</v>
       </c>
       <c r="V13" s="45">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="W13" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X13" s="49">
-        <v>8</v>
+        <v>1152</v>
       </c>
       <c r="Y13" s="51">
-        <v>-8</v>
+        <v>-1143</v>
       </c>
       <c r="Z13" s="53">
-        <v>155</v>
+        <v>21744</v>
       </c>
       <c r="AA13" s="55">
-        <v>106</v>
+        <v>14613</v>
       </c>
       <c r="AB13" s="57">
-        <v>49</v>
+        <v>7131</v>
       </c>
       <c r="AC13" s="59">
-        <v>215</v>
+        <v>29967</v>
       </c>
       <c r="AD13" s="61">
-        <v>121</v>
+        <v>16815</v>
       </c>
       <c r="AE13" s="63">
-        <v>94</v>
+        <v>13152</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2786,16 +2786,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>15</v>
+        <v>2100</v>
       </c>
       <c r="AJ13" s="73">
-        <v>5</v>
+        <v>712</v>
       </c>
       <c r="AK13" s="75">
-        <v>10</v>
+        <v>1389</v>
       </c>
       <c r="AL13" s="77">
-        <v>2192</v>
+        <v>305161</v>
       </c>
     </row>
     <row r="14">
@@ -2803,94 +2803,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>587</v>
+        <v>85303</v>
       </c>
       <c r="C14" s="7">
-        <v>819</v>
+        <v>120220</v>
       </c>
       <c r="D14" s="9">
-        <v>-232</v>
+        <v>-34917</v>
       </c>
       <c r="E14" s="11">
-        <v>681</v>
+        <v>99065</v>
       </c>
       <c r="F14" s="13">
-        <v>836</v>
+        <v>122408</v>
       </c>
       <c r="G14" s="15">
-        <v>-155</v>
+        <v>-23343</v>
       </c>
       <c r="H14" s="17">
-        <v>924</v>
+        <v>135814</v>
       </c>
       <c r="I14" s="19">
-        <v>549</v>
+        <v>79181</v>
       </c>
       <c r="J14" s="21">
-        <v>374</v>
+        <v>56633</v>
       </c>
       <c r="K14" s="23">
-        <v>141</v>
+        <v>20711</v>
       </c>
       <c r="L14" s="25">
-        <v>121</v>
+        <v>17583</v>
       </c>
       <c r="M14" s="27">
-        <v>20</v>
+        <v>3128</v>
       </c>
       <c r="N14" s="29">
-        <v>62</v>
+        <v>9210</v>
       </c>
       <c r="O14" s="31">
-        <v>61</v>
+        <v>8857</v>
       </c>
       <c r="P14" s="33">
-        <v>1</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="35">
-        <v>210</v>
+        <v>30682</v>
       </c>
       <c r="R14" s="37">
-        <v>104</v>
+        <v>14968</v>
       </c>
       <c r="S14" s="39">
-        <v>105</v>
+        <v>15714</v>
       </c>
       <c r="T14" s="41">
-        <v>18</v>
+        <v>2656</v>
       </c>
       <c r="U14" s="43">
-        <v>4</v>
+        <v>674</v>
       </c>
       <c r="V14" s="45">
-        <v>14</v>
+        <v>1982</v>
       </c>
       <c r="W14" s="47">
-        <v>5</v>
+        <v>688</v>
       </c>
       <c r="X14" s="49">
-        <v>3</v>
+        <v>397</v>
       </c>
       <c r="Y14" s="51">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="Z14" s="53">
-        <v>229</v>
+        <v>34141</v>
       </c>
       <c r="AA14" s="55">
-        <v>129</v>
+        <v>18652</v>
       </c>
       <c r="AB14" s="57">
-        <v>99</v>
+        <v>15489</v>
       </c>
       <c r="AC14" s="59">
-        <v>259</v>
+        <v>37727</v>
       </c>
       <c r="AD14" s="61">
-        <v>126</v>
+        <v>18050</v>
       </c>
       <c r="AE14" s="63">
-        <v>133</v>
+        <v>19678</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2902,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>26</v>
+        <v>3518</v>
       </c>
       <c r="AJ14" s="73">
-        <v>13</v>
+        <v>1892</v>
       </c>
       <c r="AK14" s="75">
-        <v>13</v>
+        <v>1626</v>
       </c>
       <c r="AL14" s="77">
-        <v>2218</v>
+        <v>323700</v>
       </c>
     </row>
     <row r="15">
@@ -2919,94 +2919,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>914</v>
+        <v>136768</v>
       </c>
       <c r="C15" s="7">
-        <v>718</v>
+        <v>108214</v>
       </c>
       <c r="D15" s="9">
-        <v>196</v>
+        <v>28554</v>
       </c>
       <c r="E15" s="11">
-        <v>1126</v>
+        <v>169919</v>
       </c>
       <c r="F15" s="13">
-        <v>1325</v>
+        <v>200449</v>
       </c>
       <c r="G15" s="15">
-        <v>-199</v>
+        <v>-30529</v>
       </c>
       <c r="H15" s="17">
-        <v>807</v>
+        <v>122792</v>
       </c>
       <c r="I15" s="19">
-        <v>825</v>
+        <v>123798</v>
       </c>
       <c r="J15" s="21">
-        <v>-18</v>
+        <v>-1006</v>
       </c>
       <c r="K15" s="23">
-        <v>95</v>
+        <v>14439</v>
       </c>
       <c r="L15" s="25">
-        <v>142</v>
+        <v>21235</v>
       </c>
       <c r="M15" s="27">
-        <v>-47</v>
+        <v>-6795</v>
       </c>
       <c r="N15" s="29">
-        <v>90</v>
+        <v>13622</v>
       </c>
       <c r="O15" s="31">
-        <v>102</v>
+        <v>15333</v>
       </c>
       <c r="P15" s="33">
-        <v>-11</v>
+        <v>-1710</v>
       </c>
       <c r="Q15" s="35">
-        <v>202</v>
+        <v>30733</v>
       </c>
       <c r="R15" s="37">
-        <v>191</v>
+        <v>28552</v>
       </c>
       <c r="S15" s="39">
-        <v>11</v>
+        <v>2181</v>
       </c>
       <c r="T15" s="41">
-        <v>7</v>
+        <v>1020</v>
       </c>
       <c r="U15" s="43">
-        <v>4</v>
+        <v>541</v>
       </c>
       <c r="V15" s="45">
-        <v>3</v>
+        <v>479</v>
       </c>
       <c r="W15" s="47">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="X15" s="49">
-        <v>3</v>
+        <v>477</v>
       </c>
       <c r="Y15" s="51">
-        <v>-2</v>
+        <v>-351</v>
       </c>
       <c r="Z15" s="53">
-        <v>195</v>
+        <v>30030</v>
       </c>
       <c r="AA15" s="55">
-        <v>196</v>
+        <v>29735</v>
       </c>
       <c r="AB15" s="57">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="AC15" s="59">
-        <v>217</v>
+        <v>32821</v>
       </c>
       <c r="AD15" s="61">
-        <v>189</v>
+        <v>27926</v>
       </c>
       <c r="AE15" s="63">
-        <v>28</v>
+        <v>4895</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3018,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>43</v>
+        <v>6458</v>
       </c>
       <c r="AJ15" s="73">
-        <v>23</v>
+        <v>3475</v>
       </c>
       <c r="AK15" s="75">
-        <v>21</v>
+        <v>2982</v>
       </c>
       <c r="AL15" s="77">
-        <v>2891</v>
+        <v>435937</v>
       </c>
     </row>
     <row r="16">
@@ -3035,94 +3035,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>567</v>
+        <v>78227</v>
       </c>
       <c r="C16" s="7">
-        <v>633</v>
+        <v>87951</v>
       </c>
       <c r="D16" s="9">
-        <v>-66</v>
+        <v>-9724</v>
       </c>
       <c r="E16" s="11">
-        <v>722</v>
+        <v>99777</v>
       </c>
       <c r="F16" s="13">
-        <v>905</v>
+        <v>126033</v>
       </c>
       <c r="G16" s="15">
-        <v>-184</v>
+        <v>-26257</v>
       </c>
       <c r="H16" s="17">
-        <v>772</v>
+        <v>108033</v>
       </c>
       <c r="I16" s="19">
-        <v>513</v>
+        <v>70796</v>
       </c>
       <c r="J16" s="21">
-        <v>259</v>
+        <v>37238</v>
       </c>
       <c r="K16" s="23">
-        <v>101</v>
+        <v>14081</v>
       </c>
       <c r="L16" s="25">
-        <v>111</v>
+        <v>15220</v>
       </c>
       <c r="M16" s="27">
-        <v>-10</v>
+        <v>-1138</v>
       </c>
       <c r="N16" s="29">
-        <v>66</v>
+        <v>9165</v>
       </c>
       <c r="O16" s="31">
-        <v>72</v>
+        <v>9900</v>
       </c>
       <c r="P16" s="33">
+        <v>-735</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>20394</v>
+      </c>
+      <c r="R16" s="37">
+        <v>13771</v>
+      </c>
+      <c r="S16" s="39">
+        <v>6622</v>
+      </c>
+      <c r="T16" s="41">
+        <v>334</v>
+      </c>
+      <c r="U16" s="43">
+        <v>340</v>
+      </c>
+      <c r="V16" s="45">
         <v>-6</v>
       </c>
-      <c r="Q16" s="35">
-        <v>145</v>
-      </c>
-      <c r="R16" s="37">
-        <v>100</v>
-      </c>
-      <c r="S16" s="39">
-        <v>45</v>
-      </c>
-      <c r="T16" s="41">
-        <v>2</v>
-      </c>
-      <c r="U16" s="43">
-        <v>2</v>
-      </c>
-      <c r="V16" s="45">
-        <v>0</v>
-      </c>
       <c r="W16" s="47">
-        <v>4</v>
+        <v>569</v>
       </c>
       <c r="X16" s="49">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="Y16" s="51">
-        <v>3</v>
+        <v>374</v>
       </c>
       <c r="Z16" s="53">
-        <v>273</v>
+        <v>38024</v>
       </c>
       <c r="AA16" s="55">
-        <v>140</v>
+        <v>19399</v>
       </c>
       <c r="AB16" s="57">
-        <v>133</v>
+        <v>18625</v>
       </c>
       <c r="AC16" s="59">
-        <v>181</v>
+        <v>25466</v>
       </c>
       <c r="AD16" s="61">
-        <v>87</v>
+        <v>11971</v>
       </c>
       <c r="AE16" s="63">
-        <v>94</v>
+        <v>13495</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>9</v>
+        <v>1218</v>
       </c>
       <c r="AJ16" s="73">
-        <v>18</v>
+        <v>2476</v>
       </c>
       <c r="AK16" s="75">
-        <v>-9</v>
+        <v>-1257</v>
       </c>
       <c r="AL16" s="77">
-        <v>2070</v>
+        <v>287255</v>
       </c>
     </row>
     <row r="17">
@@ -3151,94 +3151,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>796</v>
+        <v>107516</v>
       </c>
       <c r="C17" s="7">
-        <v>1228</v>
+        <v>164543</v>
       </c>
       <c r="D17" s="9">
-        <v>-433</v>
+        <v>-57026</v>
       </c>
       <c r="E17" s="11">
-        <v>956</v>
+        <v>129460</v>
       </c>
       <c r="F17" s="13">
-        <v>1130</v>
+        <v>153280</v>
       </c>
       <c r="G17" s="15">
-        <v>-174</v>
+        <v>-23820</v>
       </c>
       <c r="H17" s="17">
-        <v>1385</v>
+        <v>186305</v>
       </c>
       <c r="I17" s="19">
-        <v>766</v>
+        <v>103766</v>
       </c>
       <c r="J17" s="21">
-        <v>619</v>
+        <v>82539</v>
       </c>
       <c r="K17" s="23">
-        <v>145</v>
+        <v>19551</v>
       </c>
       <c r="L17" s="25">
-        <v>186</v>
+        <v>24819</v>
       </c>
       <c r="M17" s="27">
-        <v>-41</v>
+        <v>-5268</v>
       </c>
       <c r="N17" s="29">
-        <v>160</v>
+        <v>21484</v>
       </c>
       <c r="O17" s="31">
-        <v>81</v>
+        <v>11183</v>
       </c>
       <c r="P17" s="33">
-        <v>78</v>
+        <v>10301</v>
       </c>
       <c r="Q17" s="35">
-        <v>434</v>
+        <v>57643</v>
       </c>
       <c r="R17" s="37">
-        <v>163</v>
+        <v>22072</v>
       </c>
       <c r="S17" s="39">
-        <v>271</v>
+        <v>35571</v>
       </c>
       <c r="T17" s="41">
-        <v>3</v>
+        <v>460</v>
       </c>
       <c r="U17" s="43">
-        <v>6</v>
+        <v>819</v>
       </c>
       <c r="V17" s="45">
-        <v>-2</v>
+        <v>-360</v>
       </c>
       <c r="W17" s="47">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="X17" s="49">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="Y17" s="51">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="Z17" s="53">
-        <v>497</v>
+        <v>67778</v>
       </c>
       <c r="AA17" s="55">
-        <v>91</v>
+        <v>12181</v>
       </c>
       <c r="AB17" s="57">
-        <v>406</v>
+        <v>55597</v>
       </c>
       <c r="AC17" s="59">
-        <v>143</v>
+        <v>18968</v>
       </c>
       <c r="AD17" s="61">
-        <v>237</v>
+        <v>32378</v>
       </c>
       <c r="AE17" s="63">
-        <v>-94</v>
+        <v>-13410</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3250,16 +3250,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>10</v>
+        <v>1352</v>
       </c>
       <c r="AJ17" s="73">
-        <v>22</v>
+        <v>3044</v>
       </c>
       <c r="AK17" s="75">
-        <v>-12</v>
+        <v>-1692</v>
       </c>
       <c r="AL17" s="77">
-        <v>3146</v>
+        <v>424632</v>
       </c>
     </row>
     <row r="18">
@@ -3267,94 +3267,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1090</v>
+        <v>147102</v>
       </c>
       <c r="C18" s="7">
-        <v>1068</v>
+        <v>143151</v>
       </c>
       <c r="D18" s="9">
-        <v>22</v>
+        <v>3951</v>
       </c>
       <c r="E18" s="11">
-        <v>1611</v>
+        <v>214193</v>
       </c>
       <c r="F18" s="13">
-        <v>1810</v>
+        <v>243062</v>
       </c>
       <c r="G18" s="15">
-        <v>-199</v>
+        <v>-28870</v>
       </c>
       <c r="H18" s="17">
-        <v>1165</v>
+        <v>155961</v>
       </c>
       <c r="I18" s="19">
-        <v>978</v>
+        <v>129897</v>
       </c>
       <c r="J18" s="21">
-        <v>186</v>
+        <v>26065</v>
       </c>
       <c r="K18" s="23">
-        <v>106</v>
+        <v>13879</v>
       </c>
       <c r="L18" s="25">
-        <v>110</v>
+        <v>14637</v>
       </c>
       <c r="M18" s="27">
-        <v>-4</v>
+        <v>-759</v>
       </c>
       <c r="N18" s="29">
-        <v>99</v>
+        <v>13156</v>
       </c>
       <c r="O18" s="31">
-        <v>64</v>
+        <v>8746</v>
       </c>
       <c r="P18" s="33">
-        <v>35</v>
+        <v>4410</v>
       </c>
       <c r="Q18" s="35">
-        <v>300</v>
+        <v>40596</v>
       </c>
       <c r="R18" s="37">
-        <v>260</v>
+        <v>34218</v>
       </c>
       <c r="S18" s="39">
-        <v>40</v>
+        <v>6378</v>
       </c>
       <c r="T18" s="41">
-        <v>12</v>
+        <v>1694</v>
       </c>
       <c r="U18" s="43">
-        <v>3</v>
+        <v>495</v>
       </c>
       <c r="V18" s="45">
-        <v>8</v>
+        <v>1199</v>
       </c>
       <c r="W18" s="47">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="X18" s="49">
-        <v>2</v>
+        <v>328</v>
       </c>
       <c r="Y18" s="51">
-        <v>-1</v>
+        <v>-124</v>
       </c>
       <c r="Z18" s="53">
-        <v>429</v>
+        <v>57495</v>
       </c>
       <c r="AA18" s="55">
-        <v>126</v>
+        <v>17133</v>
       </c>
       <c r="AB18" s="57">
-        <v>303</v>
+        <v>40362</v>
       </c>
       <c r="AC18" s="59">
-        <v>217</v>
+        <v>28938</v>
       </c>
       <c r="AD18" s="61">
-        <v>412</v>
+        <v>54339</v>
       </c>
       <c r="AE18" s="63">
-        <v>-195</v>
+        <v>-25401</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3366,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>34</v>
+        <v>4510</v>
       </c>
       <c r="AJ18" s="73">
-        <v>43</v>
+        <v>5656</v>
       </c>
       <c r="AK18" s="75">
-        <v>-9</v>
+        <v>-1146</v>
       </c>
       <c r="AL18" s="77">
-        <v>3899</v>
+        <v>521766</v>
       </c>
     </row>
     <row r="19">
@@ -3383,94 +3383,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>627</v>
+        <v>126130</v>
       </c>
       <c r="C19" s="7">
-        <v>784</v>
+        <v>155761</v>
       </c>
       <c r="D19" s="9">
-        <v>-158</v>
+        <v>-29631</v>
       </c>
       <c r="E19" s="11">
-        <v>1283</v>
+        <v>247789</v>
       </c>
       <c r="F19" s="13">
-        <v>1169</v>
+        <v>216786</v>
       </c>
       <c r="G19" s="15">
-        <v>114</v>
+        <v>31003</v>
       </c>
       <c r="H19" s="17">
-        <v>766</v>
+        <v>143817</v>
       </c>
       <c r="I19" s="19">
-        <v>720</v>
+        <v>145209</v>
       </c>
       <c r="J19" s="21">
-        <v>46</v>
+        <v>-1391</v>
       </c>
       <c r="K19" s="23">
-        <v>150</v>
+        <v>27539</v>
       </c>
       <c r="L19" s="25">
-        <v>162</v>
+        <v>41491</v>
       </c>
       <c r="M19" s="27">
-        <v>-12</v>
+        <v>-13951</v>
       </c>
       <c r="N19" s="29">
-        <v>57</v>
+        <v>10894</v>
       </c>
       <c r="O19" s="31">
-        <v>60</v>
+        <v>13472</v>
       </c>
       <c r="P19" s="33">
-        <v>-3</v>
+        <v>-2579</v>
       </c>
       <c r="Q19" s="35">
-        <v>203</v>
+        <v>39457</v>
       </c>
       <c r="R19" s="37">
-        <v>157</v>
+        <v>26002</v>
       </c>
       <c r="S19" s="39">
-        <v>47</v>
+        <v>13455</v>
       </c>
       <c r="T19" s="41">
-        <v>5</v>
+        <v>981</v>
       </c>
       <c r="U19" s="43">
-        <v>5</v>
+        <v>1299</v>
       </c>
       <c r="V19" s="45">
-        <v>-1</v>
+        <v>-319</v>
       </c>
       <c r="W19" s="47">
-        <v>8</v>
+        <v>1150</v>
       </c>
       <c r="X19" s="49">
-        <v>10</v>
+        <v>1315</v>
       </c>
       <c r="Y19" s="51">
-        <v>-1</v>
+        <v>-164</v>
       </c>
       <c r="Z19" s="53">
-        <v>162</v>
+        <v>26385</v>
       </c>
       <c r="AA19" s="55">
-        <v>100</v>
+        <v>20058</v>
       </c>
       <c r="AB19" s="57">
-        <v>62</v>
+        <v>6327</v>
       </c>
       <c r="AC19" s="59">
-        <v>180</v>
+        <v>37411</v>
       </c>
       <c r="AD19" s="61">
-        <v>226</v>
+        <v>41571</v>
       </c>
       <c r="AE19" s="63">
-        <v>-46</v>
+        <v>-4160</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3482,16 +3482,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
+        <v>3552</v>
+      </c>
+      <c r="AJ19" s="73">
+        <v>3533</v>
+      </c>
+      <c r="AK19" s="75">
         <v>19</v>
       </c>
-      <c r="AJ19" s="73">
-        <v>21</v>
-      </c>
-      <c r="AK19" s="75">
-        <v>-2</v>
-      </c>
       <c r="AL19" s="77">
-        <v>2694</v>
+        <v>521289</v>
       </c>
     </row>
     <row r="20">
@@ -3499,94 +3499,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>197</v>
+        <v>144901</v>
       </c>
       <c r="C20" s="7">
-        <v>236</v>
+        <v>173541</v>
       </c>
       <c r="D20" s="9">
-        <v>-39</v>
+        <v>-28639</v>
       </c>
       <c r="E20" s="11">
-        <v>390</v>
+        <v>291453</v>
       </c>
       <c r="F20" s="13">
-        <v>341</v>
+        <v>254202</v>
       </c>
       <c r="G20" s="15">
-        <v>49</v>
+        <v>37250</v>
       </c>
       <c r="H20" s="17">
-        <v>170</v>
+        <v>126075</v>
       </c>
       <c r="I20" s="19">
-        <v>180</v>
+        <v>134610</v>
       </c>
       <c r="J20" s="21">
-        <v>-10</v>
+        <v>-8535</v>
       </c>
       <c r="K20" s="23">
-        <v>23</v>
+        <v>16994</v>
       </c>
       <c r="L20" s="25">
-        <v>36</v>
+        <v>27212</v>
       </c>
       <c r="M20" s="27">
-        <v>-13</v>
+        <v>-10218</v>
       </c>
       <c r="N20" s="29">
-        <v>18</v>
+        <v>13606</v>
       </c>
       <c r="O20" s="31">
-        <v>18</v>
+        <v>13345</v>
       </c>
       <c r="P20" s="33">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="35">
-        <v>34</v>
+        <v>24733</v>
       </c>
       <c r="R20" s="37">
-        <v>43</v>
+        <v>32522</v>
       </c>
       <c r="S20" s="39">
-        <v>-10</v>
+        <v>-7789</v>
       </c>
       <c r="T20" s="41">
-        <v>1</v>
+        <v>798</v>
       </c>
       <c r="U20" s="43">
-        <v>5</v>
+        <v>3385</v>
       </c>
       <c r="V20" s="45">
-        <v>-4</v>
+        <v>-2587</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X20" s="49">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Y20" s="51">
-        <v>0</v>
+        <v>-197</v>
       </c>
       <c r="Z20" s="53">
-        <v>40</v>
+        <v>30278</v>
       </c>
       <c r="AA20" s="55">
-        <v>25</v>
+        <v>18735</v>
       </c>
       <c r="AB20" s="57">
-        <v>15</v>
+        <v>11542</v>
       </c>
       <c r="AC20" s="59">
-        <v>53</v>
+        <v>39654</v>
       </c>
       <c r="AD20" s="61">
-        <v>52</v>
+        <v>39202</v>
       </c>
       <c r="AE20" s="63">
-        <v>1</v>
+        <v>453</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3598,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>8</v>
+        <v>6095</v>
       </c>
       <c r="AJ20" s="73">
-        <v>8</v>
+        <v>6171</v>
       </c>
       <c r="AK20" s="75">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="AL20" s="77">
-        <v>765</v>
+        <v>568524</v>
       </c>
     </row>
     <row r="21">
@@ -3615,94 +3615,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>118</v>
+        <v>101598</v>
       </c>
       <c r="C21" s="7">
-        <v>130</v>
+        <v>112007</v>
       </c>
       <c r="D21" s="9">
-        <v>-12</v>
+        <v>-10409</v>
       </c>
       <c r="E21" s="11">
-        <v>277</v>
+        <v>238363</v>
       </c>
       <c r="F21" s="13">
-        <v>271</v>
+        <v>234211</v>
       </c>
       <c r="G21" s="15">
-        <v>6</v>
+        <v>4152</v>
       </c>
       <c r="H21" s="17">
-        <v>157</v>
+        <v>134906</v>
       </c>
       <c r="I21" s="19">
-        <v>145</v>
+        <v>123873</v>
       </c>
       <c r="J21" s="21">
-        <v>12</v>
+        <v>11033</v>
       </c>
       <c r="K21" s="23">
-        <v>11</v>
+        <v>9585</v>
       </c>
       <c r="L21" s="25">
-        <v>35</v>
+        <v>29730</v>
       </c>
       <c r="M21" s="27">
-        <v>-24</v>
+        <v>-20145</v>
       </c>
       <c r="N21" s="29">
-        <v>10</v>
+        <v>8798</v>
       </c>
       <c r="O21" s="31">
-        <v>13</v>
+        <v>10766</v>
       </c>
       <c r="P21" s="33">
-        <v>-2</v>
+        <v>-1969</v>
       </c>
       <c r="Q21" s="35">
-        <v>22</v>
+        <v>19304</v>
       </c>
       <c r="R21" s="37">
-        <v>32</v>
+        <v>27558</v>
       </c>
       <c r="S21" s="39">
-        <v>-10</v>
+        <v>-8254</v>
       </c>
       <c r="T21" s="41">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="U21" s="43">
-        <v>1</v>
+        <v>885</v>
       </c>
       <c r="V21" s="45">
-        <v>-1</v>
+        <v>-782</v>
       </c>
       <c r="W21" s="47">
-        <v>1</v>
+        <v>1086</v>
       </c>
       <c r="X21" s="49">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="Y21" s="51">
-        <v>1</v>
+        <v>662</v>
       </c>
       <c r="Z21" s="53">
-        <v>40</v>
+        <v>34697</v>
       </c>
       <c r="AA21" s="55">
-        <v>23</v>
+        <v>19446</v>
       </c>
       <c r="AB21" s="57">
-        <v>17</v>
+        <v>15250</v>
       </c>
       <c r="AC21" s="59">
-        <v>72</v>
+        <v>61333</v>
       </c>
       <c r="AD21" s="61">
-        <v>41</v>
+        <v>35063</v>
       </c>
       <c r="AE21" s="63">
-        <v>31</v>
+        <v>26269</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>8</v>
+        <v>6548</v>
       </c>
       <c r="AJ21" s="73">
-        <v>13</v>
+        <v>11324</v>
       </c>
       <c r="AK21" s="75">
-        <v>-6</v>
+        <v>-4775</v>
       </c>
       <c r="AL21" s="77">
-        <v>560</v>
+        <v>481415</v>
       </c>
     </row>
     <row r="22">
@@ -3731,94 +3731,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>167</v>
+        <v>145024</v>
       </c>
       <c r="C22" s="7">
-        <v>179</v>
+        <v>155516</v>
       </c>
       <c r="D22" s="9">
-        <v>-12</v>
+        <v>-10492</v>
       </c>
       <c r="E22" s="11">
-        <v>331</v>
+        <v>289638</v>
       </c>
       <c r="F22" s="13">
+        <v>183070</v>
+      </c>
+      <c r="G22" s="15">
+        <v>106568</v>
+      </c>
+      <c r="H22" s="17">
+        <v>86203</v>
+      </c>
+      <c r="I22" s="19">
+        <v>184019</v>
+      </c>
+      <c r="J22" s="21">
+        <v>-97817</v>
+      </c>
+      <c r="K22" s="23">
+        <v>6183</v>
+      </c>
+      <c r="L22" s="25">
+        <v>51530</v>
+      </c>
+      <c r="M22" s="27">
+        <v>-45346</v>
+      </c>
+      <c r="N22" s="29">
+        <v>11651</v>
+      </c>
+      <c r="O22" s="31">
+        <v>10225</v>
+      </c>
+      <c r="P22" s="33">
+        <v>1426</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>16000</v>
+      </c>
+      <c r="R22" s="37">
+        <v>27881</v>
+      </c>
+      <c r="S22" s="39">
+        <v>-11881</v>
+      </c>
+      <c r="T22" s="41">
         <v>211</v>
       </c>
-      <c r="G22" s="15">
-        <v>120</v>
-      </c>
-      <c r="H22" s="17">
-        <v>100</v>
-      </c>
-      <c r="I22" s="19">
-        <v>210</v>
-      </c>
-      <c r="J22" s="21">
-        <v>-110</v>
-      </c>
-      <c r="K22" s="23">
-        <v>7</v>
-      </c>
-      <c r="L22" s="25">
-        <v>58</v>
-      </c>
-      <c r="M22" s="27">
-        <v>-51</v>
-      </c>
-      <c r="N22" s="29">
-        <v>14</v>
-      </c>
-      <c r="O22" s="31">
-        <v>12</v>
-      </c>
-      <c r="P22" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="35">
-        <v>19</v>
-      </c>
-      <c r="R22" s="37">
-        <v>32</v>
-      </c>
-      <c r="S22" s="39">
-        <v>-13</v>
-      </c>
-      <c r="T22" s="41">
-        <v>0</v>
-      </c>
       <c r="U22" s="43">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="V22" s="45">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="W22" s="47">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X22" s="49">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="Y22" s="51">
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="Z22" s="53">
-        <v>27</v>
+        <v>23805</v>
       </c>
       <c r="AA22" s="55">
-        <v>38</v>
+        <v>32508</v>
       </c>
       <c r="AB22" s="57">
-        <v>-11</v>
+        <v>-8704</v>
       </c>
       <c r="AC22" s="59">
-        <v>33</v>
+        <v>28330</v>
       </c>
       <c r="AD22" s="61">
-        <v>70</v>
+        <v>61508</v>
       </c>
       <c r="AE22" s="63">
-        <v>-37</v>
+        <v>-33179</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>10</v>
+        <v>8615</v>
       </c>
       <c r="AJ22" s="73">
-        <v>8</v>
+        <v>6875</v>
       </c>
       <c r="AK22" s="75">
-        <v>2</v>
+        <v>1741</v>
       </c>
       <c r="AL22" s="77">
-        <v>608</v>
+        <v>529480</v>
       </c>
     </row>
     <row r="23">
@@ -3847,94 +3847,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>316</v>
+        <v>280493</v>
       </c>
       <c r="C23" s="7">
-        <v>253</v>
+        <v>225330</v>
       </c>
       <c r="D23" s="9">
-        <v>63</v>
+        <v>55163</v>
       </c>
       <c r="E23" s="11">
-        <v>353</v>
+        <v>314863</v>
       </c>
       <c r="F23" s="13">
-        <v>513</v>
+        <v>454747</v>
       </c>
       <c r="G23" s="15">
-        <v>-159</v>
+        <v>-139885</v>
       </c>
       <c r="H23" s="17">
-        <v>212</v>
+        <v>188324</v>
       </c>
       <c r="I23" s="19">
-        <v>126</v>
+        <v>112931</v>
       </c>
       <c r="J23" s="21">
-        <v>86</v>
+        <v>75393</v>
       </c>
       <c r="K23" s="23">
-        <v>62</v>
+        <v>54477</v>
       </c>
       <c r="L23" s="25">
-        <v>39</v>
+        <v>35916</v>
       </c>
       <c r="M23" s="27">
-        <v>23</v>
+        <v>18561</v>
       </c>
       <c r="N23" s="29">
-        <v>12</v>
+        <v>10943</v>
       </c>
       <c r="O23" s="31">
-        <v>10</v>
+        <v>8832</v>
       </c>
       <c r="P23" s="33">
-        <v>2</v>
+        <v>2111</v>
       </c>
       <c r="Q23" s="35">
-        <v>34</v>
+        <v>30476</v>
       </c>
       <c r="R23" s="37">
-        <v>24</v>
+        <v>21110</v>
       </c>
       <c r="S23" s="39">
-        <v>10</v>
+        <v>9366</v>
       </c>
       <c r="T23" s="41">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="U23" s="43">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="V23" s="45">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="X23" s="49">
-        <v>6</v>
+        <v>5341</v>
       </c>
       <c r="Y23" s="51">
-        <v>-6</v>
+        <v>-5256</v>
       </c>
       <c r="Z23" s="53">
-        <v>35</v>
+        <v>30664</v>
       </c>
       <c r="AA23" s="55">
-        <v>22</v>
+        <v>19914</v>
       </c>
       <c r="AB23" s="57">
-        <v>12</v>
+        <v>10750</v>
       </c>
       <c r="AC23" s="59">
-        <v>69</v>
+        <v>61349</v>
       </c>
       <c r="AD23" s="61">
-        <v>24</v>
+        <v>21531</v>
       </c>
       <c r="AE23" s="63">
-        <v>45</v>
+        <v>39818</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>23</v>
+        <v>20630</v>
       </c>
       <c r="AJ23" s="73">
-        <v>13</v>
+        <v>11302</v>
       </c>
       <c r="AK23" s="75">
-        <v>11</v>
+        <v>9328</v>
       </c>
       <c r="AL23" s="77">
-        <v>905</v>
+        <v>804311</v>
       </c>
     </row>
     <row r="24">
@@ -3963,94 +3963,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>612</v>
+        <v>531643</v>
       </c>
       <c r="C24" s="7">
-        <v>513</v>
+        <v>443298</v>
       </c>
       <c r="D24" s="9">
-        <v>99</v>
+        <v>88345</v>
       </c>
       <c r="E24" s="11">
-        <v>404</v>
+        <v>362588</v>
       </c>
       <c r="F24" s="13">
-        <v>484</v>
+        <v>433858</v>
       </c>
       <c r="G24" s="15">
-        <v>-80</v>
+        <v>-71270</v>
       </c>
       <c r="H24" s="17">
-        <v>177</v>
+        <v>158201</v>
       </c>
       <c r="I24" s="19">
-        <v>190</v>
+        <v>169811</v>
       </c>
       <c r="J24" s="21">
-        <v>-13</v>
+        <v>-11610</v>
       </c>
       <c r="K24" s="23">
-        <v>48</v>
+        <v>43054</v>
       </c>
       <c r="L24" s="25">
-        <v>26</v>
+        <v>22712</v>
       </c>
       <c r="M24" s="27">
-        <v>22</v>
+        <v>20342</v>
       </c>
       <c r="N24" s="29">
-        <v>7</v>
+        <v>6274</v>
       </c>
       <c r="O24" s="31">
-        <v>18</v>
+        <v>16324</v>
       </c>
       <c r="P24" s="33">
-        <v>-11</v>
+        <v>-10051</v>
       </c>
       <c r="Q24" s="35">
-        <v>31</v>
+        <v>27561</v>
       </c>
       <c r="R24" s="37">
-        <v>51</v>
+        <v>45473</v>
       </c>
       <c r="S24" s="39">
-        <v>-20</v>
+        <v>-17912</v>
       </c>
       <c r="T24" s="41">
-        <v>1</v>
+        <v>1111</v>
       </c>
       <c r="U24" s="43">
-        <v>2</v>
+        <v>2105</v>
       </c>
       <c r="V24" s="45">
-        <v>-1</v>
+        <v>-994</v>
       </c>
       <c r="W24" s="47">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="X24" s="49">
-        <v>2</v>
+        <v>1302</v>
       </c>
       <c r="Y24" s="51">
-        <v>-1</v>
+        <v>-1272</v>
       </c>
       <c r="Z24" s="53">
-        <v>44</v>
+        <v>39997</v>
       </c>
       <c r="AA24" s="55">
-        <v>26</v>
+        <v>22804</v>
       </c>
       <c r="AB24" s="57">
-        <v>18</v>
+        <v>17193</v>
       </c>
       <c r="AC24" s="59">
-        <v>45</v>
+        <v>40175</v>
       </c>
       <c r="AD24" s="61">
-        <v>65</v>
+        <v>59092</v>
       </c>
       <c r="AE24" s="63">
-        <v>-20</v>
+        <v>-18917</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4062,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>13</v>
+        <v>11788</v>
       </c>
       <c r="AJ24" s="73">
-        <v>19</v>
+        <v>17253</v>
       </c>
       <c r="AK24" s="75">
-        <v>-6</v>
+        <v>-5465</v>
       </c>
       <c r="AL24" s="77">
-        <v>1206</v>
+        <v>1064220</v>
       </c>
     </row>
     <row r="25">
@@ -4079,94 +4079,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>232</v>
+        <v>193600</v>
       </c>
       <c r="C25" s="7">
-        <v>177</v>
+        <v>145115</v>
       </c>
       <c r="D25" s="9">
-        <v>56</v>
+        <v>48485</v>
       </c>
       <c r="E25" s="11">
-        <v>318</v>
+        <v>263522</v>
       </c>
       <c r="F25" s="13">
-        <v>365</v>
+        <v>300058</v>
       </c>
       <c r="G25" s="15">
-        <v>-46</v>
+        <v>-36536</v>
       </c>
       <c r="H25" s="17">
-        <v>130</v>
+        <v>104847</v>
       </c>
       <c r="I25" s="19">
-        <v>139</v>
+        <v>116255</v>
       </c>
       <c r="J25" s="21">
-        <v>-9</v>
+        <v>-11407</v>
       </c>
       <c r="K25" s="23">
+        <v>11243</v>
+      </c>
+      <c r="L25" s="25">
+        <v>21882</v>
+      </c>
+      <c r="M25" s="27">
+        <v>-10639</v>
+      </c>
+      <c r="N25" s="29">
+        <v>10498</v>
+      </c>
+      <c r="O25" s="31">
+        <v>12314</v>
+      </c>
+      <c r="P25" s="33">
+        <v>-1816</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>23733</v>
+      </c>
+      <c r="R25" s="37">
+        <v>19644</v>
+      </c>
+      <c r="S25" s="39">
+        <v>4089</v>
+      </c>
+      <c r="T25" s="41">
+        <v>19</v>
+      </c>
+      <c r="U25" s="43">
+        <v>5</v>
+      </c>
+      <c r="V25" s="45">
         <v>14</v>
       </c>
-      <c r="L25" s="25">
-        <v>26</v>
-      </c>
-      <c r="M25" s="27">
-        <v>-12</v>
-      </c>
-      <c r="N25" s="29">
-        <v>13</v>
-      </c>
-      <c r="O25" s="31">
-        <v>15</v>
-      </c>
-      <c r="P25" s="33">
-        <v>-2</v>
-      </c>
-      <c r="Q25" s="35">
-        <v>30</v>
-      </c>
-      <c r="R25" s="37">
-        <v>23</v>
-      </c>
-      <c r="S25" s="39">
-        <v>6</v>
-      </c>
-      <c r="T25" s="41">
-        <v>0</v>
-      </c>
-      <c r="U25" s="43">
-        <v>0</v>
-      </c>
-      <c r="V25" s="45">
-        <v>0</v>
-      </c>
       <c r="W25" s="47">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="X25" s="49">
-        <v>4</v>
+        <v>3190</v>
       </c>
       <c r="Y25" s="51">
-        <v>-4</v>
+        <v>-3060</v>
       </c>
       <c r="Z25" s="53">
-        <v>28</v>
+        <v>23462</v>
       </c>
       <c r="AA25" s="55">
-        <v>26</v>
+        <v>21613</v>
       </c>
       <c r="AB25" s="57">
-        <v>2</v>
+        <v>1848</v>
       </c>
       <c r="AC25" s="59">
-        <v>45</v>
+        <v>35763</v>
       </c>
       <c r="AD25" s="61">
-        <v>45</v>
+        <v>37606</v>
       </c>
       <c r="AE25" s="63">
-        <v>0</v>
+        <v>-1843</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4178,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>9</v>
+        <v>7538</v>
       </c>
       <c r="AJ25" s="73">
-        <v>10</v>
+        <v>8080</v>
       </c>
       <c r="AK25" s="75">
-        <v>-1</v>
+        <v>-542</v>
       </c>
       <c r="AL25" s="77">
-        <v>690</v>
+        <v>569507</v>
       </c>
     </row>
     <row r="26">
@@ -4195,94 +4195,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>258</v>
+        <v>186580</v>
       </c>
       <c r="C26" s="7">
-        <v>154</v>
+        <v>110170</v>
       </c>
       <c r="D26" s="9">
-        <v>104</v>
+        <v>76410</v>
       </c>
       <c r="E26" s="11">
-        <v>352</v>
+        <v>253835</v>
       </c>
       <c r="F26" s="13">
-        <v>438</v>
+        <v>318686</v>
       </c>
       <c r="G26" s="15">
-        <v>-86</v>
+        <v>-64851</v>
       </c>
       <c r="H26" s="17">
-        <v>182</v>
+        <v>133104</v>
       </c>
       <c r="I26" s="19">
-        <v>199</v>
+        <v>143428</v>
       </c>
       <c r="J26" s="21">
-        <v>-16</v>
+        <v>-10324</v>
       </c>
       <c r="K26" s="23">
-        <v>42</v>
+        <v>30985</v>
       </c>
       <c r="L26" s="25">
-        <v>12</v>
+        <v>8391</v>
       </c>
       <c r="M26" s="27">
-        <v>31</v>
+        <v>22593</v>
       </c>
       <c r="N26" s="29">
-        <v>13</v>
+        <v>9616</v>
       </c>
       <c r="O26" s="31">
-        <v>16</v>
+        <v>11525</v>
       </c>
       <c r="P26" s="33">
-        <v>-2</v>
+        <v>-1909</v>
       </c>
       <c r="Q26" s="35">
-        <v>36</v>
+        <v>26151</v>
       </c>
       <c r="R26" s="37">
-        <v>61</v>
+        <v>43988</v>
       </c>
       <c r="S26" s="39">
-        <v>-25</v>
+        <v>-17837</v>
       </c>
       <c r="T26" s="41">
         <v>0</v>
       </c>
       <c r="U26" s="43">
-        <v>1</v>
+        <v>724</v>
       </c>
       <c r="V26" s="45">
-        <v>-1</v>
+        <v>-724</v>
       </c>
       <c r="W26" s="47">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="X26" s="49">
-        <v>2</v>
+        <v>1423</v>
       </c>
       <c r="Y26" s="51">
-        <v>-2</v>
+        <v>-1365</v>
       </c>
       <c r="Z26" s="53">
-        <v>35</v>
+        <v>25862</v>
       </c>
       <c r="AA26" s="55">
-        <v>31</v>
+        <v>22048</v>
       </c>
       <c r="AB26" s="57">
-        <v>5</v>
+        <v>3814</v>
       </c>
       <c r="AC26" s="59">
-        <v>55</v>
+        <v>40433</v>
       </c>
       <c r="AD26" s="61">
-        <v>77</v>
+        <v>55329</v>
       </c>
       <c r="AE26" s="63">
-        <v>-21</v>
+        <v>-14896</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4294,16 +4294,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>5</v>
+        <v>3855</v>
       </c>
       <c r="AJ26" s="73">
-        <v>7</v>
+        <v>5090</v>
       </c>
       <c r="AK26" s="75">
-        <v>-2</v>
+        <v>-1235</v>
       </c>
       <c r="AL26" s="77">
-        <v>797</v>
+        <v>577374</v>
       </c>
     </row>
     <row r="27">
@@ -4311,94 +4311,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>215</v>
+        <v>144346</v>
       </c>
       <c r="C27" s="7">
-        <v>163</v>
+        <v>109255</v>
       </c>
       <c r="D27" s="9">
-        <v>52</v>
+        <v>35091</v>
       </c>
       <c r="E27" s="11">
-        <v>497</v>
+        <v>335183</v>
       </c>
       <c r="F27" s="13">
-        <v>576</v>
+        <v>389755</v>
       </c>
       <c r="G27" s="15">
-        <v>-79</v>
+        <v>-54572</v>
       </c>
       <c r="H27" s="17">
-        <v>194</v>
+        <v>131748</v>
       </c>
       <c r="I27" s="19">
-        <v>168</v>
+        <v>113461</v>
       </c>
       <c r="J27" s="21">
-        <v>26</v>
+        <v>18287</v>
       </c>
       <c r="K27" s="23">
-        <v>27</v>
+        <v>18015</v>
       </c>
       <c r="L27" s="25">
-        <v>14</v>
+        <v>9645</v>
       </c>
       <c r="M27" s="27">
-        <v>12</v>
+        <v>8370</v>
       </c>
       <c r="N27" s="29">
-        <v>8</v>
+        <v>5543</v>
       </c>
       <c r="O27" s="31">
-        <v>12</v>
+        <v>7645</v>
       </c>
       <c r="P27" s="33">
-        <v>-3</v>
+        <v>-2101</v>
       </c>
       <c r="Q27" s="35">
-        <v>52</v>
+        <v>35736</v>
       </c>
       <c r="R27" s="37">
-        <v>55</v>
+        <v>37056</v>
       </c>
       <c r="S27" s="39">
-        <v>-3</v>
+        <v>-1320</v>
       </c>
       <c r="T27" s="41">
-        <v>1</v>
+        <v>414</v>
       </c>
       <c r="U27" s="43">
-        <v>1</v>
+        <v>729</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>-315</v>
       </c>
       <c r="W27" s="47">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="X27" s="49">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="Y27" s="51">
-        <v>0</v>
+        <v>-310</v>
       </c>
       <c r="Z27" s="53">
-        <v>42</v>
+        <v>29383</v>
       </c>
       <c r="AA27" s="55">
-        <v>20</v>
+        <v>13197</v>
       </c>
       <c r="AB27" s="57">
-        <v>23</v>
+        <v>16186</v>
       </c>
       <c r="AC27" s="59">
-        <v>64</v>
+        <v>42549</v>
       </c>
       <c r="AD27" s="61">
-        <v>66</v>
+        <v>44772</v>
       </c>
       <c r="AE27" s="63">
-        <v>-3</v>
+        <v>-2223</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4410,16 +4410,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>7</v>
+        <v>5047</v>
       </c>
       <c r="AJ27" s="73">
-        <v>6</v>
+        <v>3854</v>
       </c>
       <c r="AK27" s="75">
-        <v>1</v>
+        <v>1194</v>
       </c>
       <c r="AL27" s="77">
-        <v>913</v>
+        <v>616324</v>
       </c>
     </row>
     <row r="28">
@@ -4427,94 +4427,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>167</v>
+        <v>92264</v>
       </c>
       <c r="C28" s="7">
-        <v>228</v>
+        <v>125243</v>
       </c>
       <c r="D28" s="9">
-        <v>-61</v>
+        <v>-32979</v>
       </c>
       <c r="E28" s="11">
-        <v>660</v>
+        <v>367146</v>
       </c>
       <c r="F28" s="13">
-        <v>655</v>
+        <v>365299</v>
       </c>
       <c r="G28" s="15">
-        <v>4</v>
+        <v>1847</v>
       </c>
       <c r="H28" s="17">
-        <v>270</v>
+        <v>150402</v>
       </c>
       <c r="I28" s="19">
-        <v>214</v>
+        <v>119731</v>
       </c>
       <c r="J28" s="21">
-        <v>56</v>
+        <v>30671</v>
       </c>
       <c r="K28" s="23">
-        <v>18</v>
+        <v>10051</v>
       </c>
       <c r="L28" s="25">
-        <v>12</v>
+        <v>6530</v>
       </c>
       <c r="M28" s="27">
-        <v>6</v>
+        <v>3521</v>
       </c>
       <c r="N28" s="29">
-        <v>21</v>
+        <v>11361</v>
       </c>
       <c r="O28" s="31">
-        <v>14</v>
+        <v>7836</v>
       </c>
       <c r="P28" s="33">
-        <v>6</v>
+        <v>3525</v>
       </c>
       <c r="Q28" s="35">
-        <v>73</v>
+        <v>40303</v>
       </c>
       <c r="R28" s="37">
-        <v>49</v>
+        <v>27300</v>
       </c>
       <c r="S28" s="39">
-        <v>24</v>
+        <v>13004</v>
       </c>
       <c r="T28" s="41">
-        <v>1</v>
+        <v>551</v>
       </c>
       <c r="U28" s="43">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="V28" s="45">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="W28" s="47">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="X28" s="49">
-        <v>2</v>
+        <v>1122</v>
       </c>
       <c r="Y28" s="51">
-        <v>-2</v>
+        <v>-946</v>
       </c>
       <c r="Z28" s="53">
-        <v>62</v>
+        <v>35059</v>
       </c>
       <c r="AA28" s="55">
-        <v>56</v>
+        <v>31947</v>
       </c>
       <c r="AB28" s="57">
-        <v>5</v>
+        <v>3112</v>
       </c>
       <c r="AC28" s="59">
-        <v>95</v>
+        <v>52901</v>
       </c>
       <c r="AD28" s="61">
-        <v>80</v>
+        <v>44868</v>
       </c>
       <c r="AE28" s="63">
-        <v>15</v>
+        <v>8033</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4526,16 +4526,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>9</v>
+        <v>4873</v>
       </c>
       <c r="AJ28" s="73">
-        <v>8</v>
+        <v>4412</v>
       </c>
       <c r="AK28" s="75">
-        <v>1</v>
+        <v>461</v>
       </c>
       <c r="AL28" s="77">
-        <v>1105</v>
+        <v>614685</v>
       </c>
     </row>
     <row r="29">
@@ -4543,94 +4543,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>219</v>
+        <v>113304</v>
       </c>
       <c r="C29" s="7">
-        <v>179</v>
+        <v>92188</v>
       </c>
       <c r="D29" s="9">
-        <v>40</v>
+        <v>21115</v>
       </c>
       <c r="E29" s="11">
-        <v>809</v>
+        <v>413407</v>
       </c>
       <c r="F29" s="13">
-        <v>708</v>
+        <v>362769</v>
       </c>
       <c r="G29" s="15">
-        <v>101</v>
+        <v>50638</v>
       </c>
       <c r="H29" s="17">
-        <v>215</v>
+        <v>110898</v>
       </c>
       <c r="I29" s="19">
-        <v>360</v>
+        <v>184802</v>
       </c>
       <c r="J29" s="21">
-        <v>-146</v>
+        <v>-73904</v>
       </c>
       <c r="K29" s="23">
-        <v>15</v>
+        <v>7817</v>
       </c>
       <c r="L29" s="25">
-        <v>15</v>
+        <v>7735</v>
       </c>
       <c r="M29" s="27">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N29" s="29">
-        <v>22</v>
+        <v>11240</v>
       </c>
       <c r="O29" s="31">
-        <v>26</v>
+        <v>13518</v>
       </c>
       <c r="P29" s="33">
-        <v>-4</v>
+        <v>-2278</v>
       </c>
       <c r="Q29" s="35">
-        <v>55</v>
+        <v>28684</v>
       </c>
       <c r="R29" s="37">
-        <v>60</v>
+        <v>30787</v>
       </c>
       <c r="S29" s="39">
-        <v>-4</v>
+        <v>-2102</v>
       </c>
       <c r="T29" s="41">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="U29" s="43">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="V29" s="45">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="W29" s="47">
-        <v>2</v>
+        <v>1151</v>
       </c>
       <c r="X29" s="49">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Y29" s="51">
-        <v>2</v>
+        <v>1088</v>
       </c>
       <c r="Z29" s="53">
-        <v>37</v>
+        <v>19346</v>
       </c>
       <c r="AA29" s="55">
-        <v>197</v>
+        <v>100317</v>
       </c>
       <c r="AB29" s="57">
-        <v>-160</v>
+        <v>-80971</v>
       </c>
       <c r="AC29" s="59">
-        <v>82</v>
+        <v>42451</v>
       </c>
       <c r="AD29" s="61">
-        <v>62</v>
+        <v>32151</v>
       </c>
       <c r="AE29" s="63">
-        <v>20</v>
+        <v>10300</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4642,16 +4642,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>15</v>
+        <v>7666</v>
       </c>
       <c r="AJ29" s="73">
-        <v>11</v>
+        <v>5515</v>
       </c>
       <c r="AK29" s="75">
-        <v>4</v>
+        <v>2151</v>
       </c>
       <c r="AL29" s="77">
-        <v>1258</v>
+        <v>645275</v>
       </c>
     </row>
     <row r="30">
@@ -4659,94 +4659,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="6">
-        <v>109</v>
+        <v>47558</v>
       </c>
       <c r="C30" s="8">
-        <v>127</v>
+        <v>54697</v>
       </c>
       <c r="D30" s="10">
-        <v>-18</v>
+        <v>-7139</v>
       </c>
       <c r="E30" s="12">
-        <v>752</v>
+        <v>324016</v>
       </c>
       <c r="F30" s="14">
-        <v>737</v>
+        <v>320039</v>
       </c>
       <c r="G30" s="16">
-        <v>16</v>
+        <v>3977</v>
       </c>
       <c r="H30" s="18">
-        <v>245</v>
+        <v>107157</v>
       </c>
       <c r="I30" s="20">
-        <v>262</v>
+        <v>112749</v>
       </c>
       <c r="J30" s="22">
-        <v>-17</v>
+        <v>-5592</v>
       </c>
       <c r="K30" s="24">
-        <v>17</v>
+        <v>7399</v>
       </c>
       <c r="L30" s="26">
-        <v>15</v>
+        <v>6352</v>
       </c>
       <c r="M30" s="28">
-        <v>3</v>
+        <v>1047</v>
       </c>
       <c r="N30" s="30">
-        <v>26</v>
+        <v>11381</v>
       </c>
       <c r="O30" s="32">
-        <v>22</v>
+        <v>9447</v>
       </c>
       <c r="P30" s="34">
-        <v>5</v>
+        <v>1934</v>
       </c>
       <c r="Q30" s="36">
-        <v>59</v>
+        <v>25871</v>
       </c>
       <c r="R30" s="38">
-        <v>78</v>
+        <v>32922</v>
       </c>
       <c r="S30" s="40">
-        <v>-19</v>
+        <v>-7051</v>
       </c>
       <c r="T30" s="42">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="U30" s="44">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="V30" s="46">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="W30" s="48">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="X30" s="50">
-        <v>1</v>
+        <v>348</v>
       </c>
       <c r="Y30" s="52">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Z30" s="54">
-        <v>59</v>
+        <v>25912</v>
       </c>
       <c r="AA30" s="56">
-        <v>123</v>
+        <v>53196</v>
       </c>
       <c r="AB30" s="58">
-        <v>-64</v>
+        <v>-27284</v>
       </c>
       <c r="AC30" s="60">
-        <v>82</v>
+        <v>35834</v>
       </c>
       <c r="AD30" s="62">
-        <v>24</v>
+        <v>10361</v>
       </c>
       <c r="AE30" s="64">
-        <v>57</v>
+        <v>25473</v>
       </c>
       <c r="AF30" s="66">
         <v>0</v>
@@ -4758,16 +4758,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="72">
-        <v>26</v>
+        <v>11706</v>
       </c>
       <c r="AJ30" s="74">
-        <v>7</v>
+        <v>2952</v>
       </c>
       <c r="AK30" s="76">
-        <v>19</v>
+        <v>8754</v>
       </c>
       <c r="AL30" s="78">
-        <v>1133</v>
+        <v>490437</v>
       </c>
     </row>
   </sheetData>
